--- a/Validate.xlsx
+++ b/Validate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbe64d8e92682174/Thesis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="11_F25DC773A252ABDACC104885111862B45ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BE9BD86-5441-4942-9BBA-782B99BC79B1}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="11_F25DC773A252ABDACC104885111862B45ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E954C278-ABE6-4CD1-A65F-BC36BF342199}"/>
   <bookViews>
     <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="56">
-  <si>
-    <t xml:space="preserve"> Due</t>
-  </si>
   <si>
     <t>Set</t>
   </si>
@@ -78,15 +75,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arrival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage 1 </t>
-  </si>
-  <si>
-    <t>Stage 2</t>
   </si>
   <si>
     <t>A11</t>
@@ -207,6 +195,18 @@
   </si>
   <si>
     <t>A50</t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>Stage1</t>
+  </si>
+  <si>
+    <t>Stage2</t>
+  </si>
+  <si>
+    <t>Due</t>
   </si>
 </sst>
 </file>
@@ -343,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -408,14 +408,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,44 +693,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="8.88671875" style="9"/>
     <col min="5" max="5" width="7.5546875" style="9" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="9"/>
-    <col min="8" max="8" width="8.88671875" style="24"/>
-    <col min="9" max="16384" width="8.88671875" style="9"/>
+    <col min="6" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="22"/>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -753,12 +745,12 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="6"/>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -775,7 +767,7 @@
       <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="6"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="6"/>
@@ -783,7 +775,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -800,7 +792,7 @@
       <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="6"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="6"/>
@@ -808,7 +800,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -825,12 +817,12 @@
       <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="6"/>
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -847,12 +839,12 @@
       <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="6"/>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -869,11 +861,11 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
@@ -890,11 +882,11 @@
       <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
@@ -911,11 +903,11 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
@@ -932,11 +924,11 @@
       <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="14">
         <f>0</f>
@@ -954,11 +946,11 @@
       <c r="F11" s="17">
         <v>1</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="6">
         <f>0</f>
@@ -976,11 +968,11 @@
       <c r="F12" s="5">
         <v>2</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="6">
         <f>0</f>
@@ -998,11 +990,11 @@
       <c r="F13" s="5">
         <v>2</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="6">
         <f>0</f>
@@ -1020,11 +1012,11 @@
       <c r="F14" s="5">
         <v>2</v>
       </c>
-      <c r="H14" s="23"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="6">
         <f>0</f>
@@ -1042,11 +1034,11 @@
       <c r="F15" s="5">
         <v>2</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="6">
         <f>0</f>
@@ -1064,11 +1056,11 @@
       <c r="F16" s="5">
         <v>2</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="6">
         <f>0</f>
@@ -1086,11 +1078,11 @@
       <c r="F17" s="5">
         <v>2</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="6">
         <f>0</f>
@@ -1108,11 +1100,11 @@
       <c r="F18" s="5">
         <v>2</v>
       </c>
-      <c r="H18" s="23"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="6">
         <f>0</f>
@@ -1130,11 +1122,11 @@
       <c r="F19" s="5">
         <v>2</v>
       </c>
-      <c r="H19" s="23"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="6">
         <f>0</f>
@@ -1152,11 +1144,11 @@
       <c r="F20" s="5">
         <v>2</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="6">
         <f>0</f>
@@ -1174,11 +1166,11 @@
       <c r="F21" s="5">
         <v>2</v>
       </c>
-      <c r="H21" s="23"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B22" s="6">
         <f>0</f>
@@ -1196,11 +1188,11 @@
       <c r="F22" s="5">
         <v>2</v>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B23" s="6">
         <f>0</f>
@@ -1218,11 +1210,11 @@
       <c r="F23" s="5">
         <v>2</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B24" s="14">
         <f>0</f>
@@ -1240,11 +1232,11 @@
       <c r="F24" s="17">
         <v>2</v>
       </c>
-      <c r="H24" s="23"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2">
         <f>0</f>
@@ -1262,11 +1254,11 @@
       <c r="F25" s="19">
         <v>3</v>
       </c>
-      <c r="H25" s="23"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="6">
         <f>0</f>
@@ -1284,11 +1276,11 @@
       <c r="F26" s="20">
         <v>3</v>
       </c>
-      <c r="H26" s="23"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="6">
         <f>0</f>
@@ -1306,11 +1298,11 @@
       <c r="F27" s="20">
         <v>3</v>
       </c>
-      <c r="H27" s="23"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="6">
         <f>0</f>
@@ -1328,11 +1320,11 @@
       <c r="F28" s="20">
         <v>3</v>
       </c>
-      <c r="H28" s="23"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="6">
         <f>0</f>
@@ -1350,11 +1342,11 @@
       <c r="F29" s="20">
         <v>3</v>
       </c>
-      <c r="H29" s="23"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="6">
         <f>0</f>
@@ -1372,11 +1364,11 @@
       <c r="F30" s="20">
         <v>3</v>
       </c>
-      <c r="H30" s="23"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="6">
         <f>0</f>
@@ -1394,11 +1386,11 @@
       <c r="F31" s="20">
         <v>3</v>
       </c>
-      <c r="H31" s="23"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" s="6">
         <f>0</f>
@@ -1416,11 +1408,11 @@
       <c r="F32" s="20">
         <v>3</v>
       </c>
-      <c r="H32" s="23"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="6">
         <f>0</f>
@@ -1438,11 +1430,11 @@
       <c r="F33" s="20">
         <v>3</v>
       </c>
-      <c r="H33" s="23"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="6">
         <f>0</f>
@@ -1460,11 +1452,11 @@
       <c r="F34" s="20">
         <v>3</v>
       </c>
-      <c r="H34" s="23"/>
+      <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B35" s="6">
         <f>0</f>
@@ -1482,11 +1474,11 @@
       <c r="F35" s="20">
         <v>3</v>
       </c>
-      <c r="H35" s="23"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B36" s="6">
         <f>0</f>
@@ -1504,11 +1496,11 @@
       <c r="F36" s="20">
         <v>3</v>
       </c>
-      <c r="H36" s="23"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B37" s="6">
         <f>0</f>
@@ -1526,11 +1518,11 @@
       <c r="F37" s="20">
         <v>3</v>
       </c>
-      <c r="H37" s="23"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B38" s="6">
         <f>0</f>
@@ -1548,11 +1540,11 @@
       <c r="F38" s="20">
         <v>3</v>
       </c>
-      <c r="H38" s="23"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B39" s="14">
         <f>0</f>
@@ -1570,11 +1562,11 @@
       <c r="F39" s="21">
         <v>3</v>
       </c>
-      <c r="H39" s="23"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="2">
         <f>0</f>
@@ -1592,11 +1584,11 @@
       <c r="F40" s="19">
         <v>4</v>
       </c>
-      <c r="H40" s="23"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" s="6">
         <f>0</f>
@@ -1614,11 +1606,11 @@
       <c r="F41" s="20">
         <v>4</v>
       </c>
-      <c r="H41" s="23"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="6">
         <f>0</f>
@@ -1636,11 +1628,11 @@
       <c r="F42" s="20">
         <v>4</v>
       </c>
-      <c r="H42" s="23"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="6">
         <f>0</f>
@@ -1658,11 +1650,11 @@
       <c r="F43" s="20">
         <v>4</v>
       </c>
-      <c r="H43" s="23"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="6">
         <f>0</f>
@@ -1680,11 +1672,11 @@
       <c r="F44" s="20">
         <v>4</v>
       </c>
-      <c r="H44" s="23"/>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" s="6">
         <f>0</f>
@@ -1702,11 +1694,11 @@
       <c r="F45" s="20">
         <v>4</v>
       </c>
-      <c r="H45" s="23"/>
+      <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" s="6">
         <f>0</f>
@@ -1724,11 +1716,11 @@
       <c r="F46" s="20">
         <v>4</v>
       </c>
-      <c r="H46" s="23"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="6">
         <f>0</f>
@@ -1746,11 +1738,11 @@
       <c r="F47" s="20">
         <v>4</v>
       </c>
-      <c r="H47" s="23"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" s="6">
         <f>0</f>
@@ -1768,11 +1760,11 @@
       <c r="F48" s="20">
         <v>4</v>
       </c>
-      <c r="H48" s="23"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="6">
         <f>0</f>
@@ -1790,11 +1782,11 @@
       <c r="F49" s="20">
         <v>4</v>
       </c>
-      <c r="H49" s="23"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B50" s="6">
         <f>0</f>
@@ -1812,11 +1804,11 @@
       <c r="F50" s="20">
         <v>4</v>
       </c>
-      <c r="H50" s="23"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B51" s="6">
         <f>0</f>
@@ -1834,11 +1826,11 @@
       <c r="F51" s="20">
         <v>4</v>
       </c>
-      <c r="H51" s="23"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B52" s="6">
         <f>0</f>
@@ -1856,11 +1848,11 @@
       <c r="F52" s="20">
         <v>4</v>
       </c>
-      <c r="H52" s="23"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B53" s="6">
         <f>0</f>
@@ -1878,11 +1870,11 @@
       <c r="F53" s="20">
         <v>4</v>
       </c>
-      <c r="H53" s="23"/>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B54" s="6">
         <f>0</f>
@@ -1900,11 +1892,11 @@
       <c r="F54" s="20">
         <v>4</v>
       </c>
-      <c r="H54" s="23"/>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B55" s="6">
         <f>0</f>
@@ -1922,11 +1914,11 @@
       <c r="F55" s="20">
         <v>4</v>
       </c>
-      <c r="H55" s="23"/>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B56" s="6">
         <f>0</f>
@@ -1944,11 +1936,11 @@
       <c r="F56" s="20">
         <v>4</v>
       </c>
-      <c r="H56" s="23"/>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B57" s="6">
         <f>0</f>
@@ -1966,11 +1958,11 @@
       <c r="F57" s="20">
         <v>4</v>
       </c>
-      <c r="H57" s="23"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B58" s="6">
         <f>0</f>
@@ -1988,11 +1980,11 @@
       <c r="F58" s="20">
         <v>4</v>
       </c>
-      <c r="H58" s="23"/>
+      <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B59" s="14">
         <f>0</f>
@@ -2010,11 +2002,11 @@
       <c r="F59" s="21">
         <v>4</v>
       </c>
-      <c r="H59" s="23"/>
+      <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" s="2">
         <f>0</f>
@@ -2032,11 +2024,11 @@
       <c r="F60" s="19">
         <v>5</v>
       </c>
-      <c r="H60" s="23"/>
+      <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" s="6">
         <f>0</f>
@@ -2054,11 +2046,11 @@
       <c r="F61" s="20">
         <v>5</v>
       </c>
-      <c r="H61" s="23"/>
+      <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" s="6">
         <f>0</f>
@@ -2076,11 +2068,11 @@
       <c r="F62" s="20">
         <v>5</v>
       </c>
-      <c r="H62" s="23"/>
+      <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" s="6">
         <f>0</f>
@@ -2098,11 +2090,11 @@
       <c r="F63" s="20">
         <v>5</v>
       </c>
-      <c r="H63" s="23"/>
+      <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" s="6">
         <f>0</f>
@@ -2120,11 +2112,11 @@
       <c r="F64" s="20">
         <v>5</v>
       </c>
-      <c r="H64" s="23"/>
+      <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65" s="6">
         <f>0</f>
@@ -2142,11 +2134,11 @@
       <c r="F65" s="20">
         <v>5</v>
       </c>
-      <c r="H65" s="23"/>
+      <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" s="6">
         <f>0</f>
@@ -2164,11 +2156,11 @@
       <c r="F66" s="20">
         <v>5</v>
       </c>
-      <c r="H66" s="23"/>
+      <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67" s="6">
         <f>0</f>
@@ -2186,11 +2178,11 @@
       <c r="F67" s="20">
         <v>5</v>
       </c>
-      <c r="H67" s="23"/>
+      <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68" s="6">
         <f>0</f>
@@ -2208,11 +2200,11 @@
       <c r="F68" s="20">
         <v>5</v>
       </c>
-      <c r="H68" s="23"/>
+      <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69" s="6">
         <f>0</f>
@@ -2230,11 +2222,11 @@
       <c r="F69" s="20">
         <v>5</v>
       </c>
-      <c r="H69" s="23"/>
+      <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B70" s="6">
         <f>0</f>
@@ -2252,11 +2244,11 @@
       <c r="F70" s="20">
         <v>5</v>
       </c>
-      <c r="H70" s="23"/>
+      <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B71" s="6">
         <f>0</f>
@@ -2274,11 +2266,11 @@
       <c r="F71" s="20">
         <v>5</v>
       </c>
-      <c r="H71" s="23"/>
+      <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B72" s="6">
         <f>0</f>
@@ -2296,11 +2288,11 @@
       <c r="F72" s="20">
         <v>5</v>
       </c>
-      <c r="H72" s="23"/>
+      <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B73" s="6">
         <f>0</f>
@@ -2318,11 +2310,11 @@
       <c r="F73" s="20">
         <v>5</v>
       </c>
-      <c r="H73" s="23"/>
+      <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B74" s="6">
         <f>0</f>
@@ -2340,11 +2332,11 @@
       <c r="F74" s="20">
         <v>5</v>
       </c>
-      <c r="H74" s="23"/>
+      <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B75" s="6">
         <f>0</f>
@@ -2362,11 +2354,11 @@
       <c r="F75" s="20">
         <v>5</v>
       </c>
-      <c r="H75" s="23"/>
+      <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B76" s="6">
         <f>0</f>
@@ -2384,11 +2376,11 @@
       <c r="F76" s="20">
         <v>5</v>
       </c>
-      <c r="H76" s="23"/>
+      <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B77" s="6">
         <f>0</f>
@@ -2406,11 +2398,11 @@
       <c r="F77" s="20">
         <v>5</v>
       </c>
-      <c r="H77" s="23"/>
+      <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B78" s="6">
         <f>0</f>
@@ -2428,11 +2420,11 @@
       <c r="F78" s="20">
         <v>5</v>
       </c>
-      <c r="H78" s="23"/>
+      <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B79" s="6">
         <f>0</f>
@@ -2450,11 +2442,11 @@
       <c r="F79" s="20">
         <v>5</v>
       </c>
-      <c r="H79" s="23"/>
+      <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B80" s="6">
         <f>0</f>
@@ -2472,11 +2464,11 @@
       <c r="F80" s="20">
         <v>5</v>
       </c>
-      <c r="H80" s="23"/>
+      <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B81" s="6">
         <f>0</f>
@@ -2494,11 +2486,11 @@
       <c r="F81" s="20">
         <v>5</v>
       </c>
-      <c r="H81" s="23"/>
+      <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B82" s="14">
         <f>0</f>
@@ -2516,11 +2508,11 @@
       <c r="F82" s="21">
         <v>5</v>
       </c>
-      <c r="H82" s="23"/>
+      <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83" s="2">
         <f>0</f>
@@ -2538,11 +2530,11 @@
       <c r="F83" s="19">
         <v>6</v>
       </c>
-      <c r="H83" s="23"/>
+      <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84" s="6">
         <f>0</f>
@@ -2560,11 +2552,11 @@
       <c r="F84" s="20">
         <v>6</v>
       </c>
-      <c r="H84" s="23"/>
+      <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B85" s="6">
         <f>0</f>
@@ -2582,11 +2574,11 @@
       <c r="F85" s="20">
         <v>6</v>
       </c>
-      <c r="H85" s="23"/>
+      <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86" s="6">
         <f>0</f>
@@ -2604,11 +2596,11 @@
       <c r="F86" s="20">
         <v>6</v>
       </c>
-      <c r="H86" s="23"/>
+      <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B87" s="6">
         <f>0</f>
@@ -2626,11 +2618,11 @@
       <c r="F87" s="20">
         <v>6</v>
       </c>
-      <c r="H87" s="23"/>
+      <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B88" s="6">
         <f>0</f>
@@ -2648,11 +2640,11 @@
       <c r="F88" s="20">
         <v>6</v>
       </c>
-      <c r="H88" s="23"/>
+      <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" s="6">
         <f>0</f>
@@ -2670,11 +2662,11 @@
       <c r="F89" s="20">
         <v>6</v>
       </c>
-      <c r="H89" s="23"/>
+      <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" s="6">
         <f>0</f>
@@ -2692,11 +2684,11 @@
       <c r="F90" s="20">
         <v>6</v>
       </c>
-      <c r="H90" s="23"/>
+      <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B91" s="6">
         <f>0</f>
@@ -2714,11 +2706,11 @@
       <c r="F91" s="20">
         <v>6</v>
       </c>
-      <c r="H91" s="23"/>
+      <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B92" s="6">
         <f>0</f>
@@ -2736,11 +2728,11 @@
       <c r="F92" s="20">
         <v>6</v>
       </c>
-      <c r="H92" s="23"/>
+      <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B93" s="6">
         <f>0</f>
@@ -2758,11 +2750,11 @@
       <c r="F93" s="20">
         <v>6</v>
       </c>
-      <c r="H93" s="23"/>
+      <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B94" s="6">
         <f>0</f>
@@ -2780,11 +2772,11 @@
       <c r="F94" s="20">
         <v>6</v>
       </c>
-      <c r="H94" s="23"/>
+      <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B95" s="6">
         <f>0</f>
@@ -2802,11 +2794,11 @@
       <c r="F95" s="20">
         <v>6</v>
       </c>
-      <c r="H95" s="23"/>
+      <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B96" s="6">
         <f>0</f>
@@ -2824,11 +2816,11 @@
       <c r="F96" s="20">
         <v>6</v>
       </c>
-      <c r="H96" s="23"/>
+      <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B97" s="6">
         <f>0</f>
@@ -2846,11 +2838,11 @@
       <c r="F97" s="20">
         <v>6</v>
       </c>
-      <c r="H97" s="23"/>
+      <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B98" s="6">
         <f>0</f>
@@ -2868,11 +2860,11 @@
       <c r="F98" s="20">
         <v>6</v>
       </c>
-      <c r="H98" s="23"/>
+      <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B99" s="6">
         <f>0</f>
@@ -2890,11 +2882,11 @@
       <c r="F99" s="20">
         <v>6</v>
       </c>
-      <c r="H99" s="23"/>
+      <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B100" s="6">
         <f>0</f>
@@ -2912,11 +2904,11 @@
       <c r="F100" s="20">
         <v>6</v>
       </c>
-      <c r="H100" s="23"/>
+      <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B101" s="6">
         <f>0</f>
@@ -2934,11 +2926,11 @@
       <c r="F101" s="20">
         <v>6</v>
       </c>
-      <c r="H101" s="23"/>
+      <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B102" s="6">
         <f>0</f>
@@ -2956,11 +2948,11 @@
       <c r="F102" s="20">
         <v>6</v>
       </c>
-      <c r="H102" s="23"/>
+      <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B103" s="6">
         <f>0</f>
@@ -2978,11 +2970,11 @@
       <c r="F103" s="20">
         <v>6</v>
       </c>
-      <c r="H103" s="23"/>
+      <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B104" s="6">
         <f>0</f>
@@ -3000,11 +2992,11 @@
       <c r="F104" s="20">
         <v>6</v>
       </c>
-      <c r="H104" s="23"/>
+      <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B105" s="6">
         <f>0</f>
@@ -3022,11 +3014,11 @@
       <c r="F105" s="20">
         <v>6</v>
       </c>
-      <c r="H105" s="23"/>
+      <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B106" s="6">
         <f>0</f>
@@ -3044,11 +3036,11 @@
       <c r="F106" s="20">
         <v>6</v>
       </c>
-      <c r="H106" s="23"/>
+      <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B107" s="14">
         <f>0</f>
@@ -3066,11 +3058,11 @@
       <c r="F107" s="21">
         <v>6</v>
       </c>
-      <c r="H107" s="23"/>
+      <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108" s="2">
         <f>0</f>
@@ -3088,11 +3080,11 @@
       <c r="F108" s="19">
         <v>7</v>
       </c>
-      <c r="H108" s="23"/>
+      <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B109" s="6">
         <f>0</f>
@@ -3110,11 +3102,11 @@
       <c r="F109" s="20">
         <v>7</v>
       </c>
-      <c r="H109" s="23"/>
+      <c r="H109" s="6"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B110" s="6">
         <f>0</f>
@@ -3132,11 +3124,11 @@
       <c r="F110" s="20">
         <v>7</v>
       </c>
-      <c r="H110" s="23"/>
+      <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B111" s="6">
         <f>0</f>
@@ -3154,11 +3146,11 @@
       <c r="F111" s="20">
         <v>7</v>
       </c>
-      <c r="H111" s="23"/>
+      <c r="H111" s="6"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B112" s="6">
         <f>0</f>
@@ -3176,11 +3168,11 @@
       <c r="F112" s="20">
         <v>7</v>
       </c>
-      <c r="H112" s="23"/>
+      <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B113" s="6">
         <f>0</f>
@@ -3198,11 +3190,11 @@
       <c r="F113" s="20">
         <v>7</v>
       </c>
-      <c r="H113" s="23"/>
+      <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B114" s="6">
         <f>0</f>
@@ -3220,11 +3212,11 @@
       <c r="F114" s="20">
         <v>7</v>
       </c>
-      <c r="H114" s="23"/>
+      <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B115" s="6">
         <f>0</f>
@@ -3242,11 +3234,11 @@
       <c r="F115" s="20">
         <v>7</v>
       </c>
-      <c r="H115" s="23"/>
+      <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B116" s="6">
         <f>0</f>
@@ -3264,11 +3256,11 @@
       <c r="F116" s="20">
         <v>7</v>
       </c>
-      <c r="H116" s="23"/>
+      <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B117" s="6">
         <f>0</f>
@@ -3286,11 +3278,11 @@
       <c r="F117" s="20">
         <v>7</v>
       </c>
-      <c r="H117" s="23"/>
+      <c r="H117" s="6"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B118" s="6">
         <f>0</f>
@@ -3308,11 +3300,11 @@
       <c r="F118" s="20">
         <v>7</v>
       </c>
-      <c r="H118" s="23"/>
+      <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B119" s="6">
         <f>0</f>
@@ -3330,11 +3322,11 @@
       <c r="F119" s="20">
         <v>7</v>
       </c>
-      <c r="H119" s="23"/>
+      <c r="H119" s="6"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B120" s="6">
         <f>0</f>
@@ -3352,11 +3344,11 @@
       <c r="F120" s="20">
         <v>7</v>
       </c>
-      <c r="H120" s="23"/>
+      <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B121" s="6">
         <f>0</f>
@@ -3374,11 +3366,11 @@
       <c r="F121" s="20">
         <v>7</v>
       </c>
-      <c r="H121" s="23"/>
+      <c r="H121" s="6"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B122" s="6">
         <f>0</f>
@@ -3396,11 +3388,11 @@
       <c r="F122" s="20">
         <v>7</v>
       </c>
-      <c r="H122" s="23"/>
+      <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B123" s="6">
         <f>0</f>
@@ -3418,11 +3410,11 @@
       <c r="F123" s="20">
         <v>7</v>
       </c>
-      <c r="H123" s="23"/>
+      <c r="H123" s="6"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B124" s="6">
         <f>0</f>
@@ -3440,11 +3432,11 @@
       <c r="F124" s="20">
         <v>7</v>
       </c>
-      <c r="H124" s="23"/>
+      <c r="H124" s="6"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B125" s="6">
         <f>0</f>
@@ -3462,11 +3454,11 @@
       <c r="F125" s="20">
         <v>7</v>
       </c>
-      <c r="H125" s="23"/>
+      <c r="H125" s="6"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B126" s="6">
         <f>0</f>
@@ -3484,11 +3476,11 @@
       <c r="F126" s="20">
         <v>7</v>
       </c>
-      <c r="H126" s="23"/>
+      <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B127" s="6">
         <f>0</f>
@@ -3506,11 +3498,11 @@
       <c r="F127" s="20">
         <v>7</v>
       </c>
-      <c r="H127" s="23"/>
+      <c r="H127" s="6"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B128" s="6">
         <f>0</f>
@@ -3528,11 +3520,11 @@
       <c r="F128" s="20">
         <v>7</v>
       </c>
-      <c r="H128" s="23"/>
+      <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B129" s="6">
         <f>0</f>
@@ -3550,11 +3542,11 @@
       <c r="F129" s="20">
         <v>7</v>
       </c>
-      <c r="H129" s="23"/>
+      <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B130" s="6">
         <f>0</f>
@@ -3572,11 +3564,11 @@
       <c r="F130" s="20">
         <v>7</v>
       </c>
-      <c r="H130" s="23"/>
+      <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B131" s="6">
         <f>0</f>
@@ -3594,11 +3586,11 @@
       <c r="F131" s="20">
         <v>7</v>
       </c>
-      <c r="H131" s="23"/>
+      <c r="H131" s="6"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B132" s="6">
         <f>0</f>
@@ -3616,11 +3608,11 @@
       <c r="F132" s="20">
         <v>7</v>
       </c>
-      <c r="H132" s="23"/>
+      <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B133" s="6">
         <f>0</f>
@@ -3638,11 +3630,11 @@
       <c r="F133" s="20">
         <v>7</v>
       </c>
-      <c r="H133" s="23"/>
+      <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B134" s="6">
         <f>0</f>
@@ -3660,11 +3652,11 @@
       <c r="F134" s="20">
         <v>7</v>
       </c>
-      <c r="H134" s="23"/>
+      <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B135" s="14">
         <f>0</f>
@@ -3682,11 +3674,11 @@
       <c r="F135" s="21">
         <v>7</v>
       </c>
-      <c r="H135" s="23"/>
+      <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B136" s="2">
         <f>0</f>
@@ -3704,11 +3696,11 @@
       <c r="F136" s="19">
         <v>8</v>
       </c>
-      <c r="H136" s="23"/>
+      <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B137" s="6">
         <f>0</f>
@@ -3726,11 +3718,11 @@
       <c r="F137" s="20">
         <v>8</v>
       </c>
-      <c r="H137" s="23"/>
+      <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B138" s="6">
         <f>0</f>
@@ -3748,11 +3740,11 @@
       <c r="F138" s="20">
         <v>8</v>
       </c>
-      <c r="H138" s="23"/>
+      <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B139" s="6">
         <f>0</f>
@@ -3770,11 +3762,11 @@
       <c r="F139" s="20">
         <v>8</v>
       </c>
-      <c r="H139" s="23"/>
+      <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B140" s="6">
         <f>0</f>
@@ -3792,11 +3784,11 @@
       <c r="F140" s="20">
         <v>8</v>
       </c>
-      <c r="H140" s="23"/>
+      <c r="H140" s="6"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B141" s="6">
         <f>0</f>
@@ -3814,11 +3806,11 @@
       <c r="F141" s="20">
         <v>8</v>
       </c>
-      <c r="H141" s="23"/>
+      <c r="H141" s="6"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B142" s="6">
         <f>0</f>
@@ -3836,11 +3828,11 @@
       <c r="F142" s="20">
         <v>8</v>
       </c>
-      <c r="H142" s="23"/>
+      <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B143" s="6">
         <f>0</f>
@@ -3858,11 +3850,11 @@
       <c r="F143" s="20">
         <v>8</v>
       </c>
-      <c r="H143" s="23"/>
+      <c r="H143" s="6"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B144" s="6">
         <f>0</f>
@@ -3880,11 +3872,11 @@
       <c r="F144" s="20">
         <v>8</v>
       </c>
-      <c r="H144" s="23"/>
+      <c r="H144" s="6"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B145" s="6">
         <f>0</f>
@@ -3902,11 +3894,11 @@
       <c r="F145" s="20">
         <v>8</v>
       </c>
-      <c r="H145" s="23"/>
+      <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B146" s="6">
         <f>0</f>
@@ -3924,11 +3916,11 @@
       <c r="F146" s="20">
         <v>8</v>
       </c>
-      <c r="H146" s="23"/>
+      <c r="H146" s="6"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B147" s="6">
         <f>0</f>
@@ -3946,11 +3938,11 @@
       <c r="F147" s="20">
         <v>8</v>
       </c>
-      <c r="H147" s="23"/>
+      <c r="H147" s="6"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B148" s="6">
         <f>0</f>
@@ -3968,11 +3960,11 @@
       <c r="F148" s="20">
         <v>8</v>
       </c>
-      <c r="H148" s="23"/>
+      <c r="H148" s="6"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B149" s="6">
         <f>0</f>
@@ -3990,11 +3982,11 @@
       <c r="F149" s="20">
         <v>8</v>
       </c>
-      <c r="H149" s="23"/>
+      <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B150" s="6">
         <f>0</f>
@@ -4012,11 +4004,11 @@
       <c r="F150" s="20">
         <v>8</v>
       </c>
-      <c r="H150" s="23"/>
+      <c r="H150" s="6"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B151" s="6">
         <f>0</f>
@@ -4034,11 +4026,11 @@
       <c r="F151" s="20">
         <v>8</v>
       </c>
-      <c r="H151" s="23"/>
+      <c r="H151" s="6"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B152" s="6">
         <f>0</f>
@@ -4056,11 +4048,11 @@
       <c r="F152" s="20">
         <v>8</v>
       </c>
-      <c r="H152" s="23"/>
+      <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B153" s="6">
         <f>0</f>
@@ -4078,11 +4070,11 @@
       <c r="F153" s="20">
         <v>8</v>
       </c>
-      <c r="H153" s="23"/>
+      <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B154" s="6">
         <f>0</f>
@@ -4100,11 +4092,11 @@
       <c r="F154" s="20">
         <v>8</v>
       </c>
-      <c r="H154" s="23"/>
+      <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B155" s="6">
         <f>0</f>
@@ -4122,11 +4114,11 @@
       <c r="F155" s="20">
         <v>8</v>
       </c>
-      <c r="H155" s="23"/>
+      <c r="H155" s="6"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B156" s="6">
         <f>0</f>
@@ -4144,11 +4136,11 @@
       <c r="F156" s="20">
         <v>8</v>
       </c>
-      <c r="H156" s="23"/>
+      <c r="H156" s="6"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B157" s="6">
         <f>0</f>
@@ -4166,11 +4158,11 @@
       <c r="F157" s="20">
         <v>8</v>
       </c>
-      <c r="H157" s="23"/>
+      <c r="H157" s="6"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B158" s="6">
         <f>0</f>
@@ -4188,11 +4180,11 @@
       <c r="F158" s="20">
         <v>8</v>
       </c>
-      <c r="H158" s="23"/>
+      <c r="H158" s="6"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B159" s="6">
         <f>0</f>
@@ -4210,11 +4202,11 @@
       <c r="F159" s="20">
         <v>8</v>
       </c>
-      <c r="H159" s="23"/>
+      <c r="H159" s="6"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B160" s="6">
         <f>0</f>
@@ -4232,11 +4224,11 @@
       <c r="F160" s="20">
         <v>8</v>
       </c>
-      <c r="H160" s="23"/>
+      <c r="H160" s="6"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B161" s="6">
         <f>0</f>
@@ -4254,11 +4246,11 @@
       <c r="F161" s="20">
         <v>8</v>
       </c>
-      <c r="H161" s="23"/>
+      <c r="H161" s="6"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B162" s="6">
         <f>0</f>
@@ -4276,11 +4268,11 @@
       <c r="F162" s="20">
         <v>8</v>
       </c>
-      <c r="H162" s="23"/>
+      <c r="H162" s="6"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B163" s="6">
         <f>0</f>
@@ -4298,11 +4290,11 @@
       <c r="F163" s="20">
         <v>8</v>
       </c>
-      <c r="H163" s="23"/>
+      <c r="H163" s="6"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B164" s="6">
         <f>0</f>
@@ -4320,11 +4312,11 @@
       <c r="F164" s="20">
         <v>8</v>
       </c>
-      <c r="H164" s="23"/>
+      <c r="H164" s="6"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B165" s="6">
         <f>0</f>
@@ -4342,11 +4334,11 @@
       <c r="F165" s="20">
         <v>8</v>
       </c>
-      <c r="H165" s="23"/>
+      <c r="H165" s="6"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166" s="2">
         <f>0</f>
@@ -4364,11 +4356,11 @@
       <c r="F166" s="19">
         <v>9</v>
       </c>
-      <c r="H166" s="23"/>
+      <c r="H166" s="6"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B167" s="6">
         <f>0</f>
@@ -4386,11 +4378,11 @@
       <c r="F167" s="20">
         <v>9</v>
       </c>
-      <c r="H167" s="23"/>
+      <c r="H167" s="6"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B168" s="6">
         <f>0</f>
@@ -4408,11 +4400,11 @@
       <c r="F168" s="20">
         <v>9</v>
       </c>
-      <c r="H168" s="23"/>
+      <c r="H168" s="6"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B169" s="6">
         <f>0</f>
@@ -4430,11 +4422,11 @@
       <c r="F169" s="20">
         <v>9</v>
       </c>
-      <c r="H169" s="23"/>
+      <c r="H169" s="6"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B170" s="6">
         <f>0</f>
@@ -4452,11 +4444,11 @@
       <c r="F170" s="20">
         <v>9</v>
       </c>
-      <c r="H170" s="23"/>
+      <c r="H170" s="6"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B171" s="6">
         <f>0</f>
@@ -4474,11 +4466,11 @@
       <c r="F171" s="20">
         <v>9</v>
       </c>
-      <c r="H171" s="23"/>
+      <c r="H171" s="6"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B172" s="6">
         <f>0</f>
@@ -4496,11 +4488,11 @@
       <c r="F172" s="20">
         <v>9</v>
       </c>
-      <c r="H172" s="23"/>
+      <c r="H172" s="6"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B173" s="6">
         <f>0</f>
@@ -4518,11 +4510,11 @@
       <c r="F173" s="20">
         <v>9</v>
       </c>
-      <c r="H173" s="23"/>
+      <c r="H173" s="6"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B174" s="6">
         <f>0</f>
@@ -4540,11 +4532,11 @@
       <c r="F174" s="20">
         <v>9</v>
       </c>
-      <c r="H174" s="23"/>
+      <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B175" s="6">
         <f>0</f>
@@ -4562,11 +4554,11 @@
       <c r="F175" s="20">
         <v>9</v>
       </c>
-      <c r="H175" s="23"/>
+      <c r="H175" s="6"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B176" s="6">
         <f>0</f>
@@ -4584,11 +4576,11 @@
       <c r="F176" s="20">
         <v>9</v>
       </c>
-      <c r="H176" s="23"/>
+      <c r="H176" s="6"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B177" s="6">
         <f>0</f>
@@ -4606,11 +4598,11 @@
       <c r="F177" s="20">
         <v>9</v>
       </c>
-      <c r="H177" s="23"/>
+      <c r="H177" s="6"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B178" s="6">
         <f>0</f>
@@ -4628,11 +4620,11 @@
       <c r="F178" s="20">
         <v>9</v>
       </c>
-      <c r="H178" s="23"/>
+      <c r="H178" s="6"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B179" s="6">
         <f>0</f>
@@ -4650,11 +4642,11 @@
       <c r="F179" s="20">
         <v>9</v>
       </c>
-      <c r="H179" s="23"/>
+      <c r="H179" s="6"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B180" s="6">
         <f>0</f>
@@ -4672,11 +4664,11 @@
       <c r="F180" s="20">
         <v>9</v>
       </c>
-      <c r="H180" s="23"/>
+      <c r="H180" s="6"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B181" s="6">
         <f>0</f>
@@ -4694,11 +4686,11 @@
       <c r="F181" s="20">
         <v>9</v>
       </c>
-      <c r="H181" s="23"/>
+      <c r="H181" s="6"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B182" s="6">
         <f>0</f>
@@ -4716,11 +4708,11 @@
       <c r="F182" s="20">
         <v>9</v>
       </c>
-      <c r="H182" s="23"/>
+      <c r="H182" s="6"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B183" s="6">
         <f>0</f>
@@ -4738,11 +4730,11 @@
       <c r="F183" s="20">
         <v>9</v>
       </c>
-      <c r="H183" s="23"/>
+      <c r="H183" s="6"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B184" s="6">
         <f>0</f>
@@ -4760,11 +4752,11 @@
       <c r="F184" s="20">
         <v>9</v>
       </c>
-      <c r="H184" s="23"/>
+      <c r="H184" s="6"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B185" s="6">
         <f>0</f>
@@ -4782,11 +4774,11 @@
       <c r="F185" s="20">
         <v>9</v>
       </c>
-      <c r="H185" s="23"/>
+      <c r="H185" s="6"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B186" s="6">
         <f>0</f>
@@ -4804,11 +4796,11 @@
       <c r="F186" s="20">
         <v>9</v>
       </c>
-      <c r="H186" s="23"/>
+      <c r="H186" s="6"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B187" s="6">
         <f>0</f>
@@ -4826,11 +4818,11 @@
       <c r="F187" s="20">
         <v>9</v>
       </c>
-      <c r="H187" s="23"/>
+      <c r="H187" s="6"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B188" s="6">
         <f>0</f>
@@ -4848,11 +4840,11 @@
       <c r="F188" s="20">
         <v>9</v>
       </c>
-      <c r="H188" s="23"/>
+      <c r="H188" s="6"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B189" s="6">
         <f>0</f>
@@ -4870,11 +4862,11 @@
       <c r="F189" s="20">
         <v>9</v>
       </c>
-      <c r="H189" s="23"/>
+      <c r="H189" s="6"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B190" s="6">
         <f>0</f>
@@ -4892,11 +4884,11 @@
       <c r="F190" s="20">
         <v>9</v>
       </c>
-      <c r="H190" s="23"/>
+      <c r="H190" s="6"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B191" s="6">
         <f>0</f>
@@ -4914,11 +4906,11 @@
       <c r="F191" s="20">
         <v>9</v>
       </c>
-      <c r="H191" s="23"/>
+      <c r="H191" s="6"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B192" s="6">
         <f>0</f>
@@ -4936,11 +4928,11 @@
       <c r="F192" s="20">
         <v>9</v>
       </c>
-      <c r="H192" s="23"/>
+      <c r="H192" s="6"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B193" s="6">
         <f>0</f>
@@ -4958,11 +4950,11 @@
       <c r="F193" s="20">
         <v>9</v>
       </c>
-      <c r="H193" s="23"/>
+      <c r="H193" s="6"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B194" s="6">
         <f>0</f>
@@ -4980,11 +4972,11 @@
       <c r="F194" s="20">
         <v>9</v>
       </c>
-      <c r="H194" s="23"/>
+      <c r="H194" s="6"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B195" s="6">
         <f>0</f>
@@ -5002,11 +4994,11 @@
       <c r="F195" s="20">
         <v>9</v>
       </c>
-      <c r="H195" s="23"/>
+      <c r="H195" s="6"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B196" s="6">
         <f>0</f>
@@ -5024,11 +5016,11 @@
       <c r="F196" s="20">
         <v>9</v>
       </c>
-      <c r="H196" s="23"/>
+      <c r="H196" s="6"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B197" s="6">
         <f>0</f>
@@ -5046,11 +5038,11 @@
       <c r="F197" s="20">
         <v>9</v>
       </c>
-      <c r="H197" s="23"/>
+      <c r="H197" s="6"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B198" s="6">
         <f>0</f>
@@ -5068,11 +5060,11 @@
       <c r="F198" s="20">
         <v>9</v>
       </c>
-      <c r="H198" s="23"/>
+      <c r="H198" s="6"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B199" s="2">
         <f>0</f>
@@ -5090,11 +5082,11 @@
       <c r="F199" s="19">
         <v>10</v>
       </c>
-      <c r="H199" s="23"/>
+      <c r="H199" s="6"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B200" s="6">
         <f>0</f>
@@ -5112,11 +5104,11 @@
       <c r="F200" s="20">
         <v>10</v>
       </c>
-      <c r="H200" s="23"/>
+      <c r="H200" s="6"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B201" s="6">
         <f>0</f>
@@ -5134,11 +5126,11 @@
       <c r="F201" s="20">
         <v>10</v>
       </c>
-      <c r="H201" s="23"/>
+      <c r="H201" s="6"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B202" s="6">
         <f>0</f>
@@ -5156,11 +5148,11 @@
       <c r="F202" s="20">
         <v>10</v>
       </c>
-      <c r="H202" s="23"/>
+      <c r="H202" s="6"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B203" s="6">
         <f>0</f>
@@ -5178,11 +5170,11 @@
       <c r="F203" s="20">
         <v>10</v>
       </c>
-      <c r="H203" s="23"/>
+      <c r="H203" s="6"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B204" s="6">
         <f>0</f>
@@ -5200,11 +5192,11 @@
       <c r="F204" s="20">
         <v>10</v>
       </c>
-      <c r="H204" s="23"/>
+      <c r="H204" s="6"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B205" s="6">
         <f>0</f>
@@ -5222,11 +5214,11 @@
       <c r="F205" s="20">
         <v>10</v>
       </c>
-      <c r="H205" s="23"/>
+      <c r="H205" s="6"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B206" s="6">
         <f>0</f>
@@ -5244,11 +5236,11 @@
       <c r="F206" s="20">
         <v>10</v>
       </c>
-      <c r="H206" s="23"/>
+      <c r="H206" s="6"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B207" s="6">
         <f>0</f>
@@ -5266,11 +5258,11 @@
       <c r="F207" s="20">
         <v>10</v>
       </c>
-      <c r="H207" s="23"/>
+      <c r="H207" s="6"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B208" s="6">
         <f>0</f>
@@ -5288,11 +5280,11 @@
       <c r="F208" s="20">
         <v>10</v>
       </c>
-      <c r="H208" s="23"/>
+      <c r="H208" s="6"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B209" s="6">
         <f>0</f>
@@ -5310,11 +5302,11 @@
       <c r="F209" s="20">
         <v>10</v>
       </c>
-      <c r="H209" s="23"/>
+      <c r="H209" s="6"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B210" s="6">
         <f>0</f>
@@ -5332,11 +5324,11 @@
       <c r="F210" s="20">
         <v>10</v>
       </c>
-      <c r="H210" s="23"/>
+      <c r="H210" s="6"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B211" s="6">
         <f>0</f>
@@ -5354,11 +5346,11 @@
       <c r="F211" s="20">
         <v>10</v>
       </c>
-      <c r="H211" s="23"/>
+      <c r="H211" s="6"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B212" s="6">
         <f>0</f>
@@ -5376,11 +5368,11 @@
       <c r="F212" s="20">
         <v>10</v>
       </c>
-      <c r="H212" s="23"/>
+      <c r="H212" s="6"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B213" s="6">
         <f>0</f>
@@ -5398,11 +5390,11 @@
       <c r="F213" s="20">
         <v>10</v>
       </c>
-      <c r="H213" s="23"/>
+      <c r="H213" s="6"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B214" s="6">
         <f>0</f>
@@ -5420,11 +5412,11 @@
       <c r="F214" s="20">
         <v>10</v>
       </c>
-      <c r="H214" s="23"/>
+      <c r="H214" s="6"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B215" s="6">
         <f>0</f>
@@ -5442,11 +5434,11 @@
       <c r="F215" s="20">
         <v>10</v>
       </c>
-      <c r="H215" s="23"/>
+      <c r="H215" s="6"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B216" s="6">
         <f>0</f>
@@ -5464,11 +5456,11 @@
       <c r="F216" s="20">
         <v>10</v>
       </c>
-      <c r="H216" s="23"/>
+      <c r="H216" s="6"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B217" s="6">
         <f>0</f>
@@ -5486,11 +5478,11 @@
       <c r="F217" s="20">
         <v>10</v>
       </c>
-      <c r="H217" s="23"/>
+      <c r="H217" s="6"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B218" s="6">
         <f>0</f>
@@ -5508,11 +5500,11 @@
       <c r="F218" s="20">
         <v>10</v>
       </c>
-      <c r="H218" s="23"/>
+      <c r="H218" s="6"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B219" s="6">
         <f>0</f>
@@ -5530,11 +5522,11 @@
       <c r="F219" s="20">
         <v>10</v>
       </c>
-      <c r="H219" s="23"/>
+      <c r="H219" s="6"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B220" s="6">
         <f>0</f>
@@ -5552,11 +5544,11 @@
       <c r="F220" s="20">
         <v>10</v>
       </c>
-      <c r="H220" s="23"/>
+      <c r="H220" s="6"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B221" s="6">
         <f>0</f>
@@ -5574,11 +5566,11 @@
       <c r="F221" s="20">
         <v>10</v>
       </c>
-      <c r="H221" s="23"/>
+      <c r="H221" s="6"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B222" s="6">
         <f>0</f>
@@ -5596,11 +5588,11 @@
       <c r="F222" s="20">
         <v>10</v>
       </c>
-      <c r="H222" s="23"/>
+      <c r="H222" s="6"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B223" s="6">
         <f>0</f>
@@ -5618,11 +5610,11 @@
       <c r="F223" s="20">
         <v>10</v>
       </c>
-      <c r="H223" s="23"/>
+      <c r="H223" s="6"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B224" s="6">
         <f>0</f>
@@ -5640,11 +5632,11 @@
       <c r="F224" s="20">
         <v>10</v>
       </c>
-      <c r="H224" s="23"/>
+      <c r="H224" s="6"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B225" s="6">
         <f>0</f>
@@ -5662,11 +5654,11 @@
       <c r="F225" s="20">
         <v>10</v>
       </c>
-      <c r="H225" s="23"/>
+      <c r="H225" s="6"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B226" s="6">
         <f>0</f>
@@ -5684,11 +5676,11 @@
       <c r="F226" s="20">
         <v>10</v>
       </c>
-      <c r="H226" s="23"/>
+      <c r="H226" s="6"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B227" s="6">
         <f>0</f>
@@ -5706,11 +5698,11 @@
       <c r="F227" s="20">
         <v>10</v>
       </c>
-      <c r="H227" s="23"/>
+      <c r="H227" s="6"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B228" s="6">
         <f>0</f>
@@ -5728,11 +5720,11 @@
       <c r="F228" s="20">
         <v>10</v>
       </c>
-      <c r="H228" s="23"/>
+      <c r="H228" s="6"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B229" s="6">
         <f>0</f>
@@ -5750,11 +5742,11 @@
       <c r="F229" s="20">
         <v>10</v>
       </c>
-      <c r="H229" s="23"/>
+      <c r="H229" s="6"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B230" s="6">
         <f>0</f>
@@ -5772,11 +5764,11 @@
       <c r="F230" s="20">
         <v>10</v>
       </c>
-      <c r="H230" s="23"/>
+      <c r="H230" s="6"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B231" s="6">
         <f>0</f>
@@ -5794,11 +5786,11 @@
       <c r="F231" s="20">
         <v>10</v>
       </c>
-      <c r="H231" s="23"/>
+      <c r="H231" s="6"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B232" s="6">
         <f>0</f>
@@ -5816,11 +5808,11 @@
       <c r="F232" s="20">
         <v>10</v>
       </c>
-      <c r="H232" s="23"/>
+      <c r="H232" s="6"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B233" s="14">
         <f>0</f>
@@ -5838,11 +5830,11 @@
       <c r="F233" s="21">
         <v>10</v>
       </c>
-      <c r="H233" s="23"/>
+      <c r="H233" s="6"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B234" s="6">
         <f>0</f>
@@ -5860,11 +5852,11 @@
       <c r="F234" s="20">
         <v>11</v>
       </c>
-      <c r="H234" s="23"/>
+      <c r="H234" s="6"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B235" s="6">
         <f>0</f>
@@ -5882,11 +5874,11 @@
       <c r="F235" s="20">
         <v>11</v>
       </c>
-      <c r="H235" s="23"/>
+      <c r="H235" s="6"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B236" s="6">
         <f>0</f>
@@ -5904,11 +5896,11 @@
       <c r="F236" s="20">
         <v>11</v>
       </c>
-      <c r="H236" s="23"/>
+      <c r="H236" s="6"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B237" s="6">
         <f>0</f>
@@ -5926,11 +5918,11 @@
       <c r="F237" s="20">
         <v>11</v>
       </c>
-      <c r="H237" s="23"/>
+      <c r="H237" s="6"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B238" s="6">
         <f>0</f>
@@ -5948,11 +5940,11 @@
       <c r="F238" s="20">
         <v>11</v>
       </c>
-      <c r="H238" s="23"/>
+      <c r="H238" s="6"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B239" s="6">
         <f>0</f>
@@ -5970,11 +5962,11 @@
       <c r="F239" s="20">
         <v>11</v>
       </c>
-      <c r="H239" s="23"/>
+      <c r="H239" s="6"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B240" s="6">
         <f>0</f>
@@ -5992,11 +5984,11 @@
       <c r="F240" s="20">
         <v>11</v>
       </c>
-      <c r="H240" s="23"/>
+      <c r="H240" s="6"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B241" s="6">
         <f>0</f>
@@ -6014,11 +6006,11 @@
       <c r="F241" s="20">
         <v>11</v>
       </c>
-      <c r="H241" s="23"/>
+      <c r="H241" s="6"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B242" s="6">
         <f>0</f>
@@ -6036,11 +6028,11 @@
       <c r="F242" s="20">
         <v>11</v>
       </c>
-      <c r="H242" s="23"/>
+      <c r="H242" s="6"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B243" s="6">
         <f>0</f>
@@ -6058,11 +6050,11 @@
       <c r="F243" s="20">
         <v>11</v>
       </c>
-      <c r="H243" s="23"/>
+      <c r="H243" s="6"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B244" s="6">
         <f>0</f>
@@ -6080,11 +6072,11 @@
       <c r="F244" s="20">
         <v>11</v>
       </c>
-      <c r="H244" s="23"/>
+      <c r="H244" s="6"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B245" s="6">
         <f>0</f>
@@ -6102,11 +6094,11 @@
       <c r="F245" s="20">
         <v>11</v>
       </c>
-      <c r="H245" s="23"/>
+      <c r="H245" s="6"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B246" s="6">
         <f>0</f>
@@ -6124,11 +6116,11 @@
       <c r="F246" s="20">
         <v>11</v>
       </c>
-      <c r="H246" s="23"/>
+      <c r="H246" s="6"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B247" s="6">
         <f>0</f>
@@ -6146,11 +6138,11 @@
       <c r="F247" s="20">
         <v>11</v>
       </c>
-      <c r="H247" s="23"/>
+      <c r="H247" s="6"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B248" s="6">
         <f>0</f>
@@ -6168,11 +6160,11 @@
       <c r="F248" s="20">
         <v>11</v>
       </c>
-      <c r="H248" s="23"/>
+      <c r="H248" s="6"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B249" s="6">
         <f>0</f>
@@ -6190,11 +6182,11 @@
       <c r="F249" s="20">
         <v>11</v>
       </c>
-      <c r="H249" s="23"/>
+      <c r="H249" s="6"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B250" s="6">
         <f>0</f>
@@ -6212,11 +6204,11 @@
       <c r="F250" s="20">
         <v>11</v>
       </c>
-      <c r="H250" s="23"/>
+      <c r="H250" s="6"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B251" s="6">
         <f>0</f>
@@ -6234,11 +6226,11 @@
       <c r="F251" s="20">
         <v>11</v>
       </c>
-      <c r="H251" s="23"/>
+      <c r="H251" s="6"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B252" s="6">
         <f>0</f>
@@ -6256,11 +6248,11 @@
       <c r="F252" s="20">
         <v>11</v>
       </c>
-      <c r="H252" s="23"/>
+      <c r="H252" s="6"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B253" s="6">
         <f>0</f>
@@ -6278,11 +6270,11 @@
       <c r="F253" s="20">
         <v>11</v>
       </c>
-      <c r="H253" s="23"/>
+      <c r="H253" s="6"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B254" s="6">
         <f>0</f>
@@ -6300,11 +6292,11 @@
       <c r="F254" s="20">
         <v>11</v>
       </c>
-      <c r="H254" s="23"/>
+      <c r="H254" s="6"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B255" s="6">
         <f>0</f>
@@ -6322,11 +6314,11 @@
       <c r="F255" s="20">
         <v>11</v>
       </c>
-      <c r="H255" s="23"/>
+      <c r="H255" s="6"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B256" s="6">
         <f>0</f>
@@ -6344,11 +6336,11 @@
       <c r="F256" s="20">
         <v>11</v>
       </c>
-      <c r="H256" s="23"/>
+      <c r="H256" s="6"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B257" s="6">
         <f>0</f>
@@ -6366,11 +6358,11 @@
       <c r="F257" s="20">
         <v>11</v>
       </c>
-      <c r="H257" s="23"/>
+      <c r="H257" s="6"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B258" s="6">
         <f>0</f>
@@ -6388,11 +6380,11 @@
       <c r="F258" s="20">
         <v>11</v>
       </c>
-      <c r="H258" s="23"/>
+      <c r="H258" s="6"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B259" s="6">
         <f>0</f>
@@ -6410,11 +6402,11 @@
       <c r="F259" s="20">
         <v>11</v>
       </c>
-      <c r="H259" s="23"/>
+      <c r="H259" s="6"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B260" s="6">
         <f>0</f>
@@ -6432,11 +6424,11 @@
       <c r="F260" s="20">
         <v>11</v>
       </c>
-      <c r="H260" s="23"/>
+      <c r="H260" s="6"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B261" s="6">
         <f>0</f>
@@ -6454,11 +6446,11 @@
       <c r="F261" s="20">
         <v>11</v>
       </c>
-      <c r="H261" s="23"/>
+      <c r="H261" s="6"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B262" s="6">
         <f>0</f>
@@ -6476,11 +6468,11 @@
       <c r="F262" s="20">
         <v>11</v>
       </c>
-      <c r="H262" s="23"/>
+      <c r="H262" s="6"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B263" s="6">
         <f>0</f>
@@ -6498,11 +6490,11 @@
       <c r="F263" s="20">
         <v>11</v>
       </c>
-      <c r="H263" s="23"/>
+      <c r="H263" s="6"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B264" s="6">
         <f>0</f>
@@ -6520,11 +6512,11 @@
       <c r="F264" s="20">
         <v>11</v>
       </c>
-      <c r="H264" s="23"/>
+      <c r="H264" s="6"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B265" s="6">
         <f>0</f>
@@ -6542,11 +6534,11 @@
       <c r="F265" s="20">
         <v>11</v>
       </c>
-      <c r="H265" s="23"/>
+      <c r="H265" s="6"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B266" s="6">
         <f>0</f>
@@ -6564,11 +6556,11 @@
       <c r="F266" s="20">
         <v>11</v>
       </c>
-      <c r="H266" s="23"/>
+      <c r="H266" s="6"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B267" s="6">
         <f>0</f>
@@ -6586,11 +6578,11 @@
       <c r="F267" s="20">
         <v>11</v>
       </c>
-      <c r="H267" s="23"/>
+      <c r="H267" s="6"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B268" s="6">
         <f>0</f>
@@ -6608,11 +6600,11 @@
       <c r="F268" s="20">
         <v>11</v>
       </c>
-      <c r="H268" s="23"/>
+      <c r="H268" s="6"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B269" s="6">
         <f>0</f>
@@ -6630,11 +6622,11 @@
       <c r="F269" s="20">
         <v>11</v>
       </c>
-      <c r="H269" s="23"/>
+      <c r="H269" s="6"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B270" s="6">
         <f>0</f>
@@ -6652,11 +6644,11 @@
       <c r="F270" s="20">
         <v>11</v>
       </c>
-      <c r="H270" s="23"/>
+      <c r="H270" s="6"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B271" s="6">
         <f>0</f>
@@ -6674,11 +6666,11 @@
       <c r="F271" s="20">
         <v>11</v>
       </c>
-      <c r="H271" s="23"/>
+      <c r="H271" s="6"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B272" s="2">
         <f>0</f>
@@ -6696,11 +6688,11 @@
       <c r="F272" s="19">
         <v>12</v>
       </c>
-      <c r="H272" s="23"/>
+      <c r="H272" s="6"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B273" s="6">
         <f>0</f>
@@ -6718,11 +6710,11 @@
       <c r="F273" s="20">
         <v>12</v>
       </c>
-      <c r="H273" s="23"/>
+      <c r="H273" s="6"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B274" s="6">
         <f>0</f>
@@ -6740,11 +6732,11 @@
       <c r="F274" s="20">
         <v>12</v>
       </c>
-      <c r="H274" s="23"/>
+      <c r="H274" s="6"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B275" s="6">
         <f>0</f>
@@ -6762,11 +6754,11 @@
       <c r="F275" s="20">
         <v>12</v>
       </c>
-      <c r="H275" s="23"/>
+      <c r="H275" s="6"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B276" s="6">
         <f>0</f>
@@ -6784,11 +6776,11 @@
       <c r="F276" s="20">
         <v>12</v>
       </c>
-      <c r="H276" s="23"/>
+      <c r="H276" s="6"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B277" s="6">
         <f>0</f>
@@ -6806,11 +6798,11 @@
       <c r="F277" s="20">
         <v>12</v>
       </c>
-      <c r="H277" s="23"/>
+      <c r="H277" s="6"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B278" s="6">
         <f>0</f>
@@ -6828,11 +6820,11 @@
       <c r="F278" s="20">
         <v>12</v>
       </c>
-      <c r="H278" s="23"/>
+      <c r="H278" s="6"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B279" s="6">
         <f>0</f>
@@ -6850,11 +6842,11 @@
       <c r="F279" s="20">
         <v>12</v>
       </c>
-      <c r="H279" s="23"/>
+      <c r="H279" s="6"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B280" s="6">
         <f>0</f>
@@ -6872,11 +6864,11 @@
       <c r="F280" s="20">
         <v>12</v>
       </c>
-      <c r="H280" s="23"/>
+      <c r="H280" s="6"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B281" s="6">
         <f>0</f>
@@ -6894,11 +6886,11 @@
       <c r="F281" s="20">
         <v>12</v>
       </c>
-      <c r="H281" s="23"/>
+      <c r="H281" s="6"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B282" s="6">
         <f>0</f>
@@ -6916,11 +6908,11 @@
       <c r="F282" s="20">
         <v>12</v>
       </c>
-      <c r="H282" s="23"/>
+      <c r="H282" s="6"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B283" s="6">
         <f>0</f>
@@ -6938,11 +6930,11 @@
       <c r="F283" s="20">
         <v>12</v>
       </c>
-      <c r="H283" s="23"/>
+      <c r="H283" s="6"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B284" s="6">
         <f>0</f>
@@ -6960,11 +6952,11 @@
       <c r="F284" s="20">
         <v>12</v>
       </c>
-      <c r="H284" s="23"/>
+      <c r="H284" s="6"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B285" s="6">
         <f>0</f>
@@ -6982,11 +6974,11 @@
       <c r="F285" s="20">
         <v>12</v>
       </c>
-      <c r="H285" s="23"/>
+      <c r="H285" s="6"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B286" s="6">
         <f>0</f>
@@ -7004,11 +6996,11 @@
       <c r="F286" s="20">
         <v>12</v>
       </c>
-      <c r="H286" s="23"/>
+      <c r="H286" s="6"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B287" s="6">
         <f>0</f>
@@ -7026,11 +7018,11 @@
       <c r="F287" s="20">
         <v>12</v>
       </c>
-      <c r="H287" s="23"/>
+      <c r="H287" s="6"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B288" s="6">
         <f>0</f>
@@ -7048,11 +7040,11 @@
       <c r="F288" s="20">
         <v>12</v>
       </c>
-      <c r="H288" s="23"/>
+      <c r="H288" s="6"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B289" s="6">
         <f>0</f>
@@ -7070,11 +7062,11 @@
       <c r="F289" s="20">
         <v>12</v>
       </c>
-      <c r="H289" s="23"/>
+      <c r="H289" s="6"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B290" s="6">
         <f>0</f>
@@ -7092,11 +7084,11 @@
       <c r="F290" s="20">
         <v>12</v>
       </c>
-      <c r="H290" s="23"/>
+      <c r="H290" s="6"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B291" s="6">
         <f>0</f>
@@ -7114,11 +7106,11 @@
       <c r="F291" s="20">
         <v>12</v>
       </c>
-      <c r="H291" s="23"/>
+      <c r="H291" s="6"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B292" s="6">
         <f>0</f>
@@ -7136,11 +7128,11 @@
       <c r="F292" s="20">
         <v>12</v>
       </c>
-      <c r="H292" s="23"/>
+      <c r="H292" s="6"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B293" s="6">
         <f>0</f>
@@ -7158,11 +7150,11 @@
       <c r="F293" s="20">
         <v>12</v>
       </c>
-      <c r="H293" s="23"/>
+      <c r="H293" s="6"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B294" s="6">
         <f>0</f>
@@ -7180,11 +7172,11 @@
       <c r="F294" s="20">
         <v>12</v>
       </c>
-      <c r="H294" s="23"/>
+      <c r="H294" s="6"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B295" s="6">
         <f>0</f>
@@ -7202,11 +7194,11 @@
       <c r="F295" s="20">
         <v>12</v>
       </c>
-      <c r="H295" s="23"/>
+      <c r="H295" s="6"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B296" s="6">
         <f>0</f>
@@ -7224,11 +7216,11 @@
       <c r="F296" s="20">
         <v>12</v>
       </c>
-      <c r="H296" s="23"/>
+      <c r="H296" s="6"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B297" s="6">
         <f>0</f>
@@ -7246,11 +7238,11 @@
       <c r="F297" s="20">
         <v>12</v>
       </c>
-      <c r="H297" s="23"/>
+      <c r="H297" s="6"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B298" s="6">
         <f>0</f>
@@ -7268,11 +7260,11 @@
       <c r="F298" s="20">
         <v>12</v>
       </c>
-      <c r="H298" s="23"/>
+      <c r="H298" s="6"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B299" s="6">
         <f>0</f>
@@ -7290,11 +7282,11 @@
       <c r="F299" s="20">
         <v>12</v>
       </c>
-      <c r="H299" s="23"/>
+      <c r="H299" s="6"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B300" s="6">
         <f>0</f>
@@ -7312,11 +7304,11 @@
       <c r="F300" s="20">
         <v>12</v>
       </c>
-      <c r="H300" s="23"/>
+      <c r="H300" s="6"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B301" s="6">
         <f>0</f>
@@ -7334,11 +7326,11 @@
       <c r="F301" s="20">
         <v>12</v>
       </c>
-      <c r="H301" s="23"/>
+      <c r="H301" s="6"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B302" s="6">
         <f>0</f>
@@ -7356,11 +7348,11 @@
       <c r="F302" s="20">
         <v>12</v>
       </c>
-      <c r="H302" s="23"/>
+      <c r="H302" s="6"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B303" s="6">
         <f>0</f>
@@ -7378,11 +7370,11 @@
       <c r="F303" s="20">
         <v>12</v>
       </c>
-      <c r="H303" s="23"/>
+      <c r="H303" s="6"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B304" s="6">
         <f>0</f>
@@ -7400,11 +7392,11 @@
       <c r="F304" s="20">
         <v>12</v>
       </c>
-      <c r="H304" s="23"/>
+      <c r="H304" s="6"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B305" s="6">
         <f>0</f>
@@ -7422,11 +7414,11 @@
       <c r="F305" s="20">
         <v>12</v>
       </c>
-      <c r="H305" s="23"/>
+      <c r="H305" s="6"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B306" s="6">
         <f>0</f>
@@ -7444,11 +7436,11 @@
       <c r="F306" s="20">
         <v>12</v>
       </c>
-      <c r="H306" s="23"/>
+      <c r="H306" s="6"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B307" s="6">
         <f>0</f>
@@ -7466,11 +7458,11 @@
       <c r="F307" s="20">
         <v>12</v>
       </c>
-      <c r="H307" s="23"/>
+      <c r="H307" s="6"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B308" s="6">
         <f>0</f>
@@ -7488,11 +7480,11 @@
       <c r="F308" s="20">
         <v>12</v>
       </c>
-      <c r="H308" s="23"/>
+      <c r="H308" s="6"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B309" s="6">
         <f>0</f>
@@ -7510,11 +7502,11 @@
       <c r="F309" s="20">
         <v>12</v>
       </c>
-      <c r="H309" s="23"/>
+      <c r="H309" s="6"/>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B310" s="6">
         <f>0</f>
@@ -7532,11 +7524,11 @@
       <c r="F310" s="20">
         <v>12</v>
       </c>
-      <c r="H310" s="23"/>
+      <c r="H310" s="6"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B311" s="14">
         <f>0</f>
@@ -7554,11 +7546,11 @@
       <c r="F311" s="21">
         <v>12</v>
       </c>
-      <c r="H311" s="23"/>
+      <c r="H311" s="6"/>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B312" s="2">
         <f>0</f>
@@ -7576,11 +7568,11 @@
       <c r="F312" s="19">
         <v>13</v>
       </c>
-      <c r="H312" s="23"/>
+      <c r="H312" s="6"/>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B313" s="6">
         <f>0</f>
@@ -7598,11 +7590,11 @@
       <c r="F313" s="20">
         <v>13</v>
       </c>
-      <c r="H313" s="23"/>
+      <c r="H313" s="6"/>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B314" s="6">
         <f>0</f>
@@ -7620,11 +7612,11 @@
       <c r="F314" s="20">
         <v>13</v>
       </c>
-      <c r="H314" s="23"/>
+      <c r="H314" s="6"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B315" s="6">
         <f>0</f>
@@ -7642,11 +7634,11 @@
       <c r="F315" s="20">
         <v>13</v>
       </c>
-      <c r="H315" s="23"/>
+      <c r="H315" s="6"/>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B316" s="6">
         <f>0</f>
@@ -7664,11 +7656,11 @@
       <c r="F316" s="20">
         <v>13</v>
       </c>
-      <c r="H316" s="23"/>
+      <c r="H316" s="6"/>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B317" s="6">
         <f>0</f>
@@ -7686,11 +7678,11 @@
       <c r="F317" s="20">
         <v>13</v>
       </c>
-      <c r="H317" s="23"/>
+      <c r="H317" s="6"/>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B318" s="6">
         <f>0</f>
@@ -7708,11 +7700,11 @@
       <c r="F318" s="20">
         <v>13</v>
       </c>
-      <c r="H318" s="23"/>
+      <c r="H318" s="6"/>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B319" s="6">
         <f>0</f>
@@ -7730,11 +7722,11 @@
       <c r="F319" s="20">
         <v>13</v>
       </c>
-      <c r="H319" s="23"/>
+      <c r="H319" s="6"/>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B320" s="6">
         <f>0</f>
@@ -7752,11 +7744,11 @@
       <c r="F320" s="20">
         <v>13</v>
       </c>
-      <c r="H320" s="23"/>
+      <c r="H320" s="6"/>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B321" s="6">
         <f>0</f>
@@ -7774,11 +7766,11 @@
       <c r="F321" s="20">
         <v>13</v>
       </c>
-      <c r="H321" s="23"/>
+      <c r="H321" s="6"/>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B322" s="6">
         <f>0</f>
@@ -7796,11 +7788,11 @@
       <c r="F322" s="20">
         <v>13</v>
       </c>
-      <c r="H322" s="23"/>
+      <c r="H322" s="6"/>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B323" s="6">
         <f>0</f>
@@ -7818,11 +7810,11 @@
       <c r="F323" s="20">
         <v>13</v>
       </c>
-      <c r="H323" s="23"/>
+      <c r="H323" s="6"/>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B324" s="6">
         <f>0</f>
@@ -7840,11 +7832,11 @@
       <c r="F324" s="20">
         <v>13</v>
       </c>
-      <c r="H324" s="23"/>
+      <c r="H324" s="6"/>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B325" s="6">
         <f>0</f>
@@ -7862,11 +7854,11 @@
       <c r="F325" s="20">
         <v>13</v>
       </c>
-      <c r="H325" s="23"/>
+      <c r="H325" s="6"/>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B326" s="6">
         <f>0</f>
@@ -7884,11 +7876,11 @@
       <c r="F326" s="20">
         <v>13</v>
       </c>
-      <c r="H326" s="23"/>
+      <c r="H326" s="6"/>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B327" s="6">
         <f>0</f>
@@ -7906,11 +7898,11 @@
       <c r="F327" s="20">
         <v>13</v>
       </c>
-      <c r="H327" s="23"/>
+      <c r="H327" s="6"/>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B328" s="6">
         <f>0</f>
@@ -7928,11 +7920,11 @@
       <c r="F328" s="20">
         <v>13</v>
       </c>
-      <c r="H328" s="23"/>
+      <c r="H328" s="6"/>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B329" s="6">
         <f>0</f>
@@ -7950,11 +7942,11 @@
       <c r="F329" s="20">
         <v>13</v>
       </c>
-      <c r="H329" s="23"/>
+      <c r="H329" s="6"/>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B330" s="6">
         <f>0</f>
@@ -7972,11 +7964,11 @@
       <c r="F330" s="20">
         <v>13</v>
       </c>
-      <c r="H330" s="23"/>
+      <c r="H330" s="6"/>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B331" s="6">
         <f>0</f>
@@ -7994,11 +7986,11 @@
       <c r="F331" s="20">
         <v>13</v>
       </c>
-      <c r="H331" s="23"/>
+      <c r="H331" s="6"/>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B332" s="6">
         <f>0</f>
@@ -8016,11 +8008,11 @@
       <c r="F332" s="20">
         <v>13</v>
       </c>
-      <c r="H332" s="23"/>
+      <c r="H332" s="6"/>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B333" s="6">
         <f>0</f>
@@ -8038,11 +8030,11 @@
       <c r="F333" s="20">
         <v>13</v>
       </c>
-      <c r="H333" s="23"/>
+      <c r="H333" s="6"/>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B334" s="6">
         <f>0</f>
@@ -8060,11 +8052,11 @@
       <c r="F334" s="20">
         <v>13</v>
       </c>
-      <c r="H334" s="23"/>
+      <c r="H334" s="6"/>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B335" s="6">
         <f>0</f>
@@ -8082,11 +8074,11 @@
       <c r="F335" s="20">
         <v>13</v>
       </c>
-      <c r="H335" s="23"/>
+      <c r="H335" s="6"/>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B336" s="6">
         <f>0</f>
@@ -8104,11 +8096,11 @@
       <c r="F336" s="20">
         <v>13</v>
       </c>
-      <c r="H336" s="23"/>
+      <c r="H336" s="6"/>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B337" s="6">
         <f>0</f>
@@ -8126,11 +8118,11 @@
       <c r="F337" s="20">
         <v>13</v>
       </c>
-      <c r="H337" s="23"/>
+      <c r="H337" s="6"/>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B338" s="6">
         <f>0</f>
@@ -8148,11 +8140,11 @@
       <c r="F338" s="20">
         <v>13</v>
       </c>
-      <c r="H338" s="23"/>
+      <c r="H338" s="6"/>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B339" s="6">
         <f>0</f>
@@ -8170,11 +8162,11 @@
       <c r="F339" s="20">
         <v>13</v>
       </c>
-      <c r="H339" s="23"/>
+      <c r="H339" s="6"/>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B340" s="6">
         <f>0</f>
@@ -8192,11 +8184,11 @@
       <c r="F340" s="20">
         <v>13</v>
       </c>
-      <c r="H340" s="23"/>
+      <c r="H340" s="6"/>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B341" s="6">
         <f>0</f>
@@ -8214,11 +8206,11 @@
       <c r="F341" s="20">
         <v>13</v>
       </c>
-      <c r="H341" s="23"/>
+      <c r="H341" s="6"/>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B342" s="6">
         <f>0</f>
@@ -8236,11 +8228,11 @@
       <c r="F342" s="20">
         <v>13</v>
       </c>
-      <c r="H342" s="23"/>
+      <c r="H342" s="6"/>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B343" s="6">
         <f>0</f>
@@ -8258,11 +8250,11 @@
       <c r="F343" s="20">
         <v>13</v>
       </c>
-      <c r="H343" s="23"/>
+      <c r="H343" s="6"/>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B344" s="6">
         <f>0</f>
@@ -8280,11 +8272,11 @@
       <c r="F344" s="20">
         <v>13</v>
       </c>
-      <c r="H344" s="23"/>
+      <c r="H344" s="6"/>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B345" s="6">
         <f>0</f>
@@ -8302,11 +8294,11 @@
       <c r="F345" s="20">
         <v>13</v>
       </c>
-      <c r="H345" s="23"/>
+      <c r="H345" s="6"/>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B346" s="6">
         <f>0</f>
@@ -8324,11 +8316,11 @@
       <c r="F346" s="20">
         <v>13</v>
       </c>
-      <c r="H346" s="23"/>
+      <c r="H346" s="6"/>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B347" s="6">
         <f>0</f>
@@ -8346,11 +8338,11 @@
       <c r="F347" s="20">
         <v>13</v>
       </c>
-      <c r="H347" s="23"/>
+      <c r="H347" s="6"/>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B348" s="6">
         <f>0</f>
@@ -8368,11 +8360,11 @@
       <c r="F348" s="20">
         <v>13</v>
       </c>
-      <c r="H348" s="23"/>
+      <c r="H348" s="6"/>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B349" s="6">
         <f>0</f>
@@ -8390,11 +8382,11 @@
       <c r="F349" s="20">
         <v>13</v>
       </c>
-      <c r="H349" s="23"/>
+      <c r="H349" s="6"/>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B350" s="6">
         <f>0</f>
@@ -8412,11 +8404,11 @@
       <c r="F350" s="20">
         <v>13</v>
       </c>
-      <c r="H350" s="23"/>
+      <c r="H350" s="6"/>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B351" s="6">
         <f>0</f>
@@ -8434,11 +8426,11 @@
       <c r="F351" s="20">
         <v>13</v>
       </c>
-      <c r="H351" s="23"/>
+      <c r="H351" s="6"/>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B352" s="6">
         <f>0</f>
@@ -8456,11 +8448,11 @@
       <c r="F352" s="20">
         <v>13</v>
       </c>
-      <c r="H352" s="23"/>
+      <c r="H352" s="6"/>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B353" s="6">
         <f>0</f>
@@ -8478,11 +8470,11 @@
       <c r="F353" s="20">
         <v>13</v>
       </c>
-      <c r="H353" s="23"/>
+      <c r="H353" s="6"/>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B354" s="6">
         <f>0</f>
@@ -8500,11 +8492,11 @@
       <c r="F354" s="20">
         <v>13</v>
       </c>
-      <c r="H354" s="23"/>
+      <c r="H354" s="6"/>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B355" s="2">
         <f>0</f>
@@ -8522,11 +8514,11 @@
       <c r="F355" s="19">
         <v>14</v>
       </c>
-      <c r="H355" s="23"/>
+      <c r="H355" s="6"/>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B356" s="6">
         <f>0</f>
@@ -8544,11 +8536,11 @@
       <c r="F356" s="20">
         <v>14</v>
       </c>
-      <c r="H356" s="23"/>
+      <c r="H356" s="6"/>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B357" s="6">
         <f>0</f>
@@ -8566,11 +8558,11 @@
       <c r="F357" s="20">
         <v>14</v>
       </c>
-      <c r="H357" s="23"/>
+      <c r="H357" s="6"/>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B358" s="6">
         <f>0</f>
@@ -8588,11 +8580,11 @@
       <c r="F358" s="20">
         <v>14</v>
       </c>
-      <c r="H358" s="23"/>
+      <c r="H358" s="6"/>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B359" s="6">
         <f>0</f>
@@ -8610,11 +8602,11 @@
       <c r="F359" s="20">
         <v>14</v>
       </c>
-      <c r="H359" s="23"/>
+      <c r="H359" s="6"/>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B360" s="6">
         <f>0</f>
@@ -8632,11 +8624,11 @@
       <c r="F360" s="20">
         <v>14</v>
       </c>
-      <c r="H360" s="23"/>
+      <c r="H360" s="6"/>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B361" s="6">
         <f>0</f>
@@ -8654,11 +8646,11 @@
       <c r="F361" s="20">
         <v>14</v>
       </c>
-      <c r="H361" s="23"/>
+      <c r="H361" s="6"/>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B362" s="6">
         <f>0</f>
@@ -8676,11 +8668,11 @@
       <c r="F362" s="20">
         <v>14</v>
       </c>
-      <c r="H362" s="23"/>
+      <c r="H362" s="6"/>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B363" s="6">
         <f>0</f>
@@ -8698,11 +8690,11 @@
       <c r="F363" s="20">
         <v>14</v>
       </c>
-      <c r="H363" s="23"/>
+      <c r="H363" s="6"/>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B364" s="6">
         <f>0</f>
@@ -8720,11 +8712,11 @@
       <c r="F364" s="20">
         <v>14</v>
       </c>
-      <c r="H364" s="23"/>
+      <c r="H364" s="6"/>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B365" s="6">
         <f>0</f>
@@ -8742,11 +8734,11 @@
       <c r="F365" s="20">
         <v>14</v>
       </c>
-      <c r="H365" s="23"/>
+      <c r="H365" s="6"/>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B366" s="6">
         <f>0</f>
@@ -8764,11 +8756,11 @@
       <c r="F366" s="20">
         <v>14</v>
       </c>
-      <c r="H366" s="23"/>
+      <c r="H366" s="6"/>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B367" s="6">
         <f>0</f>
@@ -8786,11 +8778,11 @@
       <c r="F367" s="20">
         <v>14</v>
       </c>
-      <c r="H367" s="23"/>
+      <c r="H367" s="6"/>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B368" s="6">
         <f>0</f>
@@ -8808,11 +8800,11 @@
       <c r="F368" s="20">
         <v>14</v>
       </c>
-      <c r="H368" s="23"/>
+      <c r="H368" s="6"/>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B369" s="6">
         <f>0</f>
@@ -8830,11 +8822,11 @@
       <c r="F369" s="20">
         <v>14</v>
       </c>
-      <c r="H369" s="23"/>
+      <c r="H369" s="6"/>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B370" s="6">
         <f>0</f>
@@ -8852,11 +8844,11 @@
       <c r="F370" s="20">
         <v>14</v>
       </c>
-      <c r="H370" s="23"/>
+      <c r="H370" s="6"/>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B371" s="6">
         <f>0</f>
@@ -8874,11 +8866,11 @@
       <c r="F371" s="20">
         <v>14</v>
       </c>
-      <c r="H371" s="23"/>
+      <c r="H371" s="6"/>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B372" s="6">
         <f>0</f>
@@ -8896,11 +8888,11 @@
       <c r="F372" s="20">
         <v>14</v>
       </c>
-      <c r="H372" s="23"/>
+      <c r="H372" s="6"/>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B373" s="6">
         <f>0</f>
@@ -8918,11 +8910,11 @@
       <c r="F373" s="20">
         <v>14</v>
       </c>
-      <c r="H373" s="23"/>
+      <c r="H373" s="6"/>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B374" s="6">
         <f>0</f>
@@ -8940,11 +8932,11 @@
       <c r="F374" s="20">
         <v>14</v>
       </c>
-      <c r="H374" s="23"/>
+      <c r="H374" s="6"/>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B375" s="6">
         <f>0</f>
@@ -8962,11 +8954,11 @@
       <c r="F375" s="20">
         <v>14</v>
       </c>
-      <c r="H375" s="23"/>
+      <c r="H375" s="6"/>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B376" s="6">
         <f>0</f>
@@ -8984,11 +8976,11 @@
       <c r="F376" s="20">
         <v>14</v>
       </c>
-      <c r="H376" s="23"/>
+      <c r="H376" s="6"/>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B377" s="6">
         <f>0</f>
@@ -9006,11 +8998,11 @@
       <c r="F377" s="20">
         <v>14</v>
       </c>
-      <c r="H377" s="23"/>
+      <c r="H377" s="6"/>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B378" s="6">
         <f>0</f>
@@ -9028,11 +9020,11 @@
       <c r="F378" s="20">
         <v>14</v>
       </c>
-      <c r="H378" s="23"/>
+      <c r="H378" s="6"/>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B379" s="6">
         <f>0</f>
@@ -9050,11 +9042,11 @@
       <c r="F379" s="20">
         <v>14</v>
       </c>
-      <c r="H379" s="23"/>
+      <c r="H379" s="6"/>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B380" s="6">
         <f>0</f>
@@ -9072,11 +9064,11 @@
       <c r="F380" s="20">
         <v>14</v>
       </c>
-      <c r="H380" s="23"/>
+      <c r="H380" s="6"/>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B381" s="6">
         <f>0</f>
@@ -9094,11 +9086,11 @@
       <c r="F381" s="20">
         <v>14</v>
       </c>
-      <c r="H381" s="23"/>
+      <c r="H381" s="6"/>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B382" s="6">
         <f>0</f>
@@ -9116,11 +9108,11 @@
       <c r="F382" s="20">
         <v>14</v>
       </c>
-      <c r="H382" s="23"/>
+      <c r="H382" s="6"/>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B383" s="6">
         <f>0</f>
@@ -9138,11 +9130,11 @@
       <c r="F383" s="20">
         <v>14</v>
       </c>
-      <c r="H383" s="23"/>
+      <c r="H383" s="6"/>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B384" s="6">
         <f>0</f>
@@ -9160,11 +9152,11 @@
       <c r="F384" s="20">
         <v>14</v>
       </c>
-      <c r="H384" s="23"/>
+      <c r="H384" s="6"/>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B385" s="6">
         <f>0</f>
@@ -9182,11 +9174,11 @@
       <c r="F385" s="20">
         <v>14</v>
       </c>
-      <c r="H385" s="23"/>
+      <c r="H385" s="6"/>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B386" s="6">
         <f>0</f>
@@ -9204,11 +9196,11 @@
       <c r="F386" s="20">
         <v>14</v>
       </c>
-      <c r="H386" s="23"/>
+      <c r="H386" s="6"/>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B387" s="6">
         <f>0</f>
@@ -9226,11 +9218,11 @@
       <c r="F387" s="20">
         <v>14</v>
       </c>
-      <c r="H387" s="23"/>
+      <c r="H387" s="6"/>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B388" s="6">
         <f>0</f>
@@ -9248,11 +9240,11 @@
       <c r="F388" s="20">
         <v>14</v>
       </c>
-      <c r="H388" s="23"/>
+      <c r="H388" s="6"/>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B389" s="6">
         <f>0</f>
@@ -9270,11 +9262,11 @@
       <c r="F389" s="20">
         <v>14</v>
       </c>
-      <c r="H389" s="23"/>
+      <c r="H389" s="6"/>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B390" s="6">
         <f>0</f>
@@ -9292,11 +9284,11 @@
       <c r="F390" s="20">
         <v>14</v>
       </c>
-      <c r="H390" s="23"/>
+      <c r="H390" s="6"/>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B391" s="6">
         <f>0</f>
@@ -9314,11 +9306,11 @@
       <c r="F391" s="20">
         <v>14</v>
       </c>
-      <c r="H391" s="23"/>
+      <c r="H391" s="6"/>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B392" s="6">
         <f>0</f>
@@ -9336,11 +9328,11 @@
       <c r="F392" s="20">
         <v>14</v>
       </c>
-      <c r="H392" s="23"/>
+      <c r="H392" s="6"/>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B393" s="6">
         <f>0</f>
@@ -9358,11 +9350,11 @@
       <c r="F393" s="20">
         <v>14</v>
       </c>
-      <c r="H393" s="23"/>
+      <c r="H393" s="6"/>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B394" s="6">
         <f>0</f>
@@ -9380,11 +9372,11 @@
       <c r="F394" s="20">
         <v>14</v>
       </c>
-      <c r="H394" s="23"/>
+      <c r="H394" s="6"/>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B395" s="6">
         <f>0</f>
@@ -9402,11 +9394,11 @@
       <c r="F395" s="20">
         <v>14</v>
       </c>
-      <c r="H395" s="23"/>
+      <c r="H395" s="6"/>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B396" s="6">
         <f>0</f>
@@ -9424,11 +9416,11 @@
       <c r="F396" s="20">
         <v>14</v>
       </c>
-      <c r="H396" s="23"/>
+      <c r="H396" s="6"/>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B397" s="6">
         <f>0</f>
@@ -9446,11 +9438,11 @@
       <c r="F397" s="20">
         <v>14</v>
       </c>
-      <c r="H397" s="23"/>
+      <c r="H397" s="6"/>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B398" s="6">
         <f>0</f>
@@ -9468,11 +9460,11 @@
       <c r="F398" s="20">
         <v>14</v>
       </c>
-      <c r="H398" s="23"/>
+      <c r="H398" s="6"/>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B399" s="14">
         <f>0</f>
@@ -9490,11 +9482,11 @@
       <c r="F399" s="21">
         <v>14</v>
       </c>
-      <c r="H399" s="23"/>
+      <c r="H399" s="6"/>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B400" s="6">
         <f>0</f>
@@ -9512,11 +9504,11 @@
       <c r="F400" s="20">
         <v>15</v>
       </c>
-      <c r="H400" s="23"/>
+      <c r="H400" s="6"/>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B401" s="6">
         <f>0</f>
@@ -9534,11 +9526,11 @@
       <c r="F401" s="20">
         <v>15</v>
       </c>
-      <c r="H401" s="23"/>
+      <c r="H401" s="6"/>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B402" s="6">
         <f>0</f>
@@ -9556,11 +9548,11 @@
       <c r="F402" s="20">
         <v>15</v>
       </c>
-      <c r="H402" s="23"/>
+      <c r="H402" s="6"/>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B403" s="6">
         <f>0</f>
@@ -9578,11 +9570,11 @@
       <c r="F403" s="20">
         <v>15</v>
       </c>
-      <c r="H403" s="23"/>
+      <c r="H403" s="6"/>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B404" s="6">
         <f>0</f>
@@ -9600,11 +9592,11 @@
       <c r="F404" s="20">
         <v>15</v>
       </c>
-      <c r="H404" s="23"/>
+      <c r="H404" s="6"/>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B405" s="6">
         <f>0</f>
@@ -9622,11 +9614,11 @@
       <c r="F405" s="20">
         <v>15</v>
       </c>
-      <c r="H405" s="23"/>
+      <c r="H405" s="6"/>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B406" s="6">
         <f>0</f>
@@ -9644,11 +9636,11 @@
       <c r="F406" s="20">
         <v>15</v>
       </c>
-      <c r="H406" s="23"/>
+      <c r="H406" s="6"/>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B407" s="6">
         <f>0</f>
@@ -9666,11 +9658,11 @@
       <c r="F407" s="20">
         <v>15</v>
       </c>
-      <c r="H407" s="23"/>
+      <c r="H407" s="6"/>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B408" s="6">
         <f>0</f>
@@ -9688,11 +9680,11 @@
       <c r="F408" s="20">
         <v>15</v>
       </c>
-      <c r="H408" s="23"/>
+      <c r="H408" s="6"/>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B409" s="6">
         <f>0</f>
@@ -9710,11 +9702,11 @@
       <c r="F409" s="20">
         <v>15</v>
       </c>
-      <c r="H409" s="23"/>
+      <c r="H409" s="6"/>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B410" s="6">
         <f>0</f>
@@ -9732,11 +9724,11 @@
       <c r="F410" s="20">
         <v>15</v>
       </c>
-      <c r="H410" s="23"/>
+      <c r="H410" s="6"/>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B411" s="6">
         <f>0</f>
@@ -9754,11 +9746,11 @@
       <c r="F411" s="20">
         <v>15</v>
       </c>
-      <c r="H411" s="23"/>
+      <c r="H411" s="6"/>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B412" s="6">
         <f>0</f>
@@ -9776,11 +9768,11 @@
       <c r="F412" s="20">
         <v>15</v>
       </c>
-      <c r="H412" s="23"/>
+      <c r="H412" s="6"/>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B413" s="6">
         <f>0</f>
@@ -9798,11 +9790,11 @@
       <c r="F413" s="20">
         <v>15</v>
       </c>
-      <c r="H413" s="23"/>
+      <c r="H413" s="6"/>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B414" s="6">
         <f>0</f>
@@ -9820,11 +9812,11 @@
       <c r="F414" s="20">
         <v>15</v>
       </c>
-      <c r="H414" s="23"/>
+      <c r="H414" s="6"/>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B415" s="6">
         <f>0</f>
@@ -9842,11 +9834,11 @@
       <c r="F415" s="20">
         <v>15</v>
       </c>
-      <c r="H415" s="23"/>
+      <c r="H415" s="6"/>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B416" s="6">
         <f>0</f>
@@ -9864,11 +9856,11 @@
       <c r="F416" s="20">
         <v>15</v>
       </c>
-      <c r="H416" s="23"/>
+      <c r="H416" s="6"/>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B417" s="6">
         <f>0</f>
@@ -9886,11 +9878,11 @@
       <c r="F417" s="20">
         <v>15</v>
       </c>
-      <c r="H417" s="23"/>
+      <c r="H417" s="6"/>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B418" s="6">
         <f>0</f>
@@ -9908,11 +9900,11 @@
       <c r="F418" s="20">
         <v>15</v>
       </c>
-      <c r="H418" s="23"/>
+      <c r="H418" s="6"/>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B419" s="6">
         <f>0</f>
@@ -9930,11 +9922,11 @@
       <c r="F419" s="20">
         <v>15</v>
       </c>
-      <c r="H419" s="23"/>
+      <c r="H419" s="6"/>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B420" s="6">
         <f>0</f>
@@ -9952,11 +9944,11 @@
       <c r="F420" s="20">
         <v>15</v>
       </c>
-      <c r="H420" s="23"/>
+      <c r="H420" s="6"/>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B421" s="6">
         <f>0</f>
@@ -9974,11 +9966,11 @@
       <c r="F421" s="20">
         <v>15</v>
       </c>
-      <c r="H421" s="23"/>
+      <c r="H421" s="6"/>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B422" s="6">
         <f>0</f>
@@ -9996,11 +9988,11 @@
       <c r="F422" s="20">
         <v>15</v>
       </c>
-      <c r="H422" s="23"/>
+      <c r="H422" s="6"/>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B423" s="6">
         <f>0</f>
@@ -10018,11 +10010,11 @@
       <c r="F423" s="20">
         <v>15</v>
       </c>
-      <c r="H423" s="23"/>
+      <c r="H423" s="6"/>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B424" s="6">
         <f>0</f>
@@ -10040,11 +10032,11 @@
       <c r="F424" s="20">
         <v>15</v>
       </c>
-      <c r="H424" s="23"/>
+      <c r="H424" s="6"/>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B425" s="6">
         <f>0</f>
@@ -10062,11 +10054,11 @@
       <c r="F425" s="20">
         <v>15</v>
       </c>
-      <c r="H425" s="23"/>
+      <c r="H425" s="6"/>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B426" s="6">
         <f>0</f>
@@ -10084,11 +10076,11 @@
       <c r="F426" s="20">
         <v>15</v>
       </c>
-      <c r="H426" s="23"/>
+      <c r="H426" s="6"/>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B427" s="6">
         <f>0</f>
@@ -10106,11 +10098,11 @@
       <c r="F427" s="20">
         <v>15</v>
       </c>
-      <c r="H427" s="23"/>
+      <c r="H427" s="6"/>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B428" s="6">
         <f>0</f>
@@ -10128,11 +10120,11 @@
       <c r="F428" s="20">
         <v>15</v>
       </c>
-      <c r="H428" s="23"/>
+      <c r="H428" s="6"/>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B429" s="6">
         <f>0</f>
@@ -10150,11 +10142,11 @@
       <c r="F429" s="20">
         <v>15</v>
       </c>
-      <c r="H429" s="23"/>
+      <c r="H429" s="6"/>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B430" s="6">
         <f>0</f>
@@ -10172,11 +10164,11 @@
       <c r="F430" s="20">
         <v>15</v>
       </c>
-      <c r="H430" s="23"/>
+      <c r="H430" s="6"/>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B431" s="6">
         <f>0</f>
@@ -10194,11 +10186,11 @@
       <c r="F431" s="20">
         <v>15</v>
       </c>
-      <c r="H431" s="23"/>
+      <c r="H431" s="6"/>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B432" s="6">
         <f>0</f>
@@ -10216,11 +10208,11 @@
       <c r="F432" s="20">
         <v>15</v>
       </c>
-      <c r="H432" s="23"/>
+      <c r="H432" s="6"/>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B433" s="6">
         <f>0</f>
@@ -10238,11 +10230,11 @@
       <c r="F433" s="20">
         <v>15</v>
       </c>
-      <c r="H433" s="23"/>
+      <c r="H433" s="6"/>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B434" s="6">
         <f>0</f>
@@ -10260,11 +10252,11 @@
       <c r="F434" s="20">
         <v>15</v>
       </c>
-      <c r="H434" s="23"/>
+      <c r="H434" s="6"/>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B435" s="6">
         <f>0</f>
@@ -10282,11 +10274,11 @@
       <c r="F435" s="20">
         <v>15</v>
       </c>
-      <c r="H435" s="23"/>
+      <c r="H435" s="6"/>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B436" s="6">
         <f>0</f>
@@ -10304,11 +10296,11 @@
       <c r="F436" s="20">
         <v>15</v>
       </c>
-      <c r="H436" s="23"/>
+      <c r="H436" s="6"/>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B437" s="6">
         <f>0</f>
@@ -10326,11 +10318,11 @@
       <c r="F437" s="20">
         <v>15</v>
       </c>
-      <c r="H437" s="23"/>
+      <c r="H437" s="6"/>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B438" s="6">
         <f>0</f>
@@ -10348,11 +10340,11 @@
       <c r="F438" s="20">
         <v>15</v>
       </c>
-      <c r="H438" s="23"/>
+      <c r="H438" s="6"/>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B439" s="6">
         <f>0</f>
@@ -10370,11 +10362,11 @@
       <c r="F439" s="20">
         <v>15</v>
       </c>
-      <c r="H439" s="23"/>
+      <c r="H439" s="6"/>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B440" s="6">
         <f>0</f>
@@ -10392,11 +10384,11 @@
       <c r="F440" s="20">
         <v>15</v>
       </c>
-      <c r="H440" s="23"/>
+      <c r="H440" s="6"/>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B441" s="6">
         <f>0</f>
@@ -10414,11 +10406,11 @@
       <c r="F441" s="20">
         <v>15</v>
       </c>
-      <c r="H441" s="23"/>
+      <c r="H441" s="6"/>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B442" s="6">
         <f>0</f>
@@ -10436,11 +10428,11 @@
       <c r="F442" s="20">
         <v>15</v>
       </c>
-      <c r="H442" s="23"/>
+      <c r="H442" s="6"/>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B443" s="6">
         <f>0</f>
@@ -10458,11 +10450,11 @@
       <c r="F443" s="20">
         <v>15</v>
       </c>
-      <c r="H443" s="23"/>
+      <c r="H443" s="6"/>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B444" s="6">
         <f>0</f>
@@ -10480,11 +10472,11 @@
       <c r="F444" s="20">
         <v>15</v>
       </c>
-      <c r="H444" s="23"/>
+      <c r="H444" s="6"/>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B445" s="6">
         <f>0</f>
@@ -10502,11 +10494,11 @@
       <c r="F445" s="20">
         <v>15</v>
       </c>
-      <c r="H445" s="23"/>
+      <c r="H445" s="6"/>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B446" s="6">
         <f>0</f>
@@ -10524,11 +10516,11 @@
       <c r="F446" s="20">
         <v>15</v>
       </c>
-      <c r="H446" s="23"/>
+      <c r="H446" s="6"/>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B447" s="6">
         <f>0</f>
@@ -10546,11 +10538,11 @@
       <c r="F447" s="20">
         <v>15</v>
       </c>
-      <c r="H447" s="23"/>
+      <c r="H447" s="6"/>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B448" s="6">
         <f>0</f>
@@ -10568,11 +10560,11 @@
       <c r="F448" s="20">
         <v>15</v>
       </c>
-      <c r="H448" s="23"/>
+      <c r="H448" s="6"/>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B449" s="14">
         <f>0</f>
@@ -10590,39 +10582,39 @@
       <c r="F449" s="21">
         <v>15</v>
       </c>
-      <c r="H449" s="23"/>
+      <c r="H449" s="6"/>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" s="6"/>
-      <c r="H450" s="23"/>
+      <c r="H450" s="6"/>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" s="6"/>
-      <c r="H451" s="23"/>
+      <c r="H451" s="6"/>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" s="6"/>
-      <c r="H452" s="23"/>
+      <c r="H452" s="6"/>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" s="6"/>
-      <c r="H453" s="23"/>
+      <c r="H453" s="6"/>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" s="6"/>
-      <c r="H454" s="23"/>
+      <c r="H454" s="6"/>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" s="6"/>
-      <c r="H455" s="23"/>
+      <c r="H455" s="6"/>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" s="6"/>
-      <c r="H456" s="23"/>
+      <c r="H456" s="6"/>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" s="6"/>
-      <c r="H457" s="23"/>
+      <c r="H457" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
